--- a/news_data/2017_12.xlsx
+++ b/news_data/2017_12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,60 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도관광협회, 찾아가는 이동형 관광안내소 운영</t>
+  </si>
+  <si>
+    <t>제주도내 우수관광사업체 28곳 지정</t>
+  </si>
+  <si>
+    <t>제주도, 1억5천만원 들여 '바다 수중비경' 관광상품 개발</t>
+  </si>
+  <si>
+    <t>제주도, 내년 관광산업 질적 성장 6대 핵심과제 추진</t>
+  </si>
+  <si>
+    <t>제주도, 올해 하반기 우수관광사업체 28곳 지정</t>
+  </si>
+  <si>
+    <t>몸살 앓는 제주도, 관광정책 수정 긴급</t>
+  </si>
+  <si>
+    <t>제주도, 저가관광 개선 등에 420억 투입</t>
+  </si>
+  <si>
+    <t>'대안없는 과잉관광에 제주도가 죽어간다'</t>
+  </si>
+  <si>
+    <t>제주4.3평화공원, 제주도 최우수 공영 관광지로 선정</t>
+  </si>
+  <si>
+    <t>제주도, 관광 위기극복 비상대책본부 추진상황 보고회 개최</t>
+  </si>
+  <si>
+    <t>제주도의회, 오라관광단지 자본검증 위원 추천 거부...이유는?</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 사업체 종사자 대상 "리스크 관리 컨설팅"교육 실시</t>
+  </si>
+  <si>
+    <t>제주도관광협회-JDC, '해외시장 다변화 실현위한 워크숍'실시</t>
+  </si>
+  <si>
+    <t>방중 정상회담 계기로 제주도 관광사업 주목… '제주 신항 코아루 디펠리체' ...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제주시티투어버스 '순항'</t>
+  </si>
+  <si>
+    <t>제주도관광협회 관광인의 밤 송년 행사</t>
+  </si>
+  <si>
+    <t>제주도 내년부터 일반·학생대상 관광교육 실시</t>
+  </si>
+  <si>
+    <t>함양군, 최대 관광지 제주도서 함양곶감 선보인다…곶감·농특산물 유통 등 공...</t>
+  </si>
+  <si>
     <t>제주도, 중국인 웨딩 관광객 유치 이벤트 마련</t>
   </si>
   <si>
@@ -46,7 +100,61 @@
     <t>제주도의회 문화관광스포츠위원회, 2018년 제주도 예산안 계수조정 결과</t>
   </si>
   <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:23 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도, 중국인 웨딩 관광객 유치 이벤트 마련 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 제주도, 중국인 웨딩 관광객 유치 이벤트 마련 홍석준 기자 승인 2017.12.07 13:20 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 12월 8~9일 이틀간 중국 사천성 천두에서 웨딩관광설명회 개최 예비부부 70쌍 초청 소비자 설명회도 … 질적관광 전환 본격화 올 10월 진행된 웨딩 팸투어와 단편영화 촬영 모습. /사진=제주특별자치도 [미디어제주 홍석준 기자] 중국인 웨딩 관광객을 제주에 유치하기 위한 이벤트가 마련된다. 제주특별자치도와 제주관광공사는 12월 8일과 9일 이틀간 중국 사천성 청두에서 제주 웨딩관광설명회와 소비자 이벤트를 진행한다고 7일 밝혔다. 이번 웨딩관광설명회는 특수 목적의 관광상품 개발을 통해 중국 현지와 도내 업계를 연결한 고부가가치 관광 수요를 창출, 제주를 찾는 중국인 관광객의 체질 개선을 위해 마련됐다. 제주도는 지난 10월 19일부터 25일까지 청두 현지의 웨딩업체 관계자를 제주로 초청, 웨딩 인프라 답사와 단편영화 촬영, 제주웨딩협회와 현지 웨딩업체간 미니 트래블마트를 개최, 중국 현지와 도내 업계간 네트워크를 구축한 바 있다. 이번 설명회는 그동안의 협력 시스템 구축을 바탕으로 제주웨딩협회와 웨딩 전문 여행사 등 11개 도내 업체가 직접 참여하는 B2B 트래블마트, 청두 현지 업계를 대상으로 한 제주 웨딩관광설명회, 예비부부 70쌍 초청 소비자 설명회도 함께 마련될 예정이다. 이승찬 도 관광국장은 “사드 이전부터 제주가 안고 있던 저가관광 등의 문제점을 개선하는 방향으로 대 중국 마케팅을 지속적으로 추진할 계획”이라면서 “이번 설명회와 소비자 이벤트를 통해 중국 아웃바운드 핵심 소비층인 80~90년생들의 개성 있는 해외 웨딩 패턴에 부합하는 목적지로서 제주를 브랜딩하고 이를 통한 고부가가치 웨딩상품 개발과 홍보에 적극 나서겠다”고 말했다. Tag #웨딩관광 #제주특별자치도 #중국 #청두 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+    <t>제주도관광협회, 찾아가는 이동형 관광안내소 운영 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회, 찾아가는 이동형 관광안내소 운영 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회, 찾아가는 이동형 관광안내소 운영 제주CBS 박정섭 기자 메일보내기 2017-12-29 11:15 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 (사진=자료사진) 제주도관광협회가 제주를 방문하는 국내외 관광객들을 위해 '찾아가는 이동형 제주관광안내소'를 운영한다. ‘찾아가는 이동형 제주관광안내소'는 도내 주요 관광명소와 이벤트 개최 장소를 찾아다니며 관광객을 대상으로 관광안내와 외국어 통역, 무선 인터넷 서비스 등 편의서비스를 제공한다.또 거리 이벤트 등 재미를 동반한 참여형 프로그램을 수시로 운영, 기존의 관광안내소와 차별화된 운영을 계획하고 있다.특히 계절별, 시간대별 달라지는 관광객 밀집지역의 변화에 즉시 대응, 관광안내서비스를 제공할 수 있어 제주를 찾는 방문객들의 만족도 향상에 기여할 것으로 기대된다.도관광협회 관계자는 "대한민국 최고의 관광도시인 제주의 명성에 맞는 적극적인 관광안내 서비스를 통해 관광객의 만족도를 높여 나가겠다"고 밝혔다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" [칼럼]핵위협 공포에 휩싸인 한반도 금감원 '수상한 외환거래' 이달 중 검사 마무리 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도내 우수관광사업체 28곳 지정 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도내 우수관광사업체 28곳 지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도내 우수관광사업체 28곳 지정 기자명 이기봉 기자 입력 2017.12.28 11:08 수정 2017.12.28 11:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도, 28일 공모 신청 36개 업체 대상 심의결과 공고 2017년 하반기 제주도내 우수관광사업체로 28개 업체가 지정됐다.제주도는 28일 “지난 21일 ‘제주도 우수관광사업체 평정위원회’ 심의결과, 올해 하반기 신청업체 36개소 중 관광지, 숙박, 여행업, 음식 4개 분야에 28개 업체를 지정해 도청 홈페이지에 공고했다”고 밝혔다.도는 관광사업체의 자율적인 경쟁을 통해 품질향상과 서비스 개선 등 관광사업체의 경쟁력을 강화시키기 위해 매년 상·하반기 우수관광사업체를 공모해 지정하고 있다.우수관광사업체는 공모에 신청한 관광사업체의 신청서류, 행정처분 여부 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거친 후에 지정되고 있다.지정 기간은 내년 8월1일부터 2019년 12월31일까지이다.2년(2018.8.1. ~ 2019.12.31.)이다.우수관광사업체로 지정된 28개 업체는 우수관광사업체 지정서 및 인증패가 수여되고, 홍보지원금 70만원이 지급되며, 도 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다.다음은 2017년 하반기 우수관광사업체 지정결과△관광지=믿거나말거나박물관 제주난타 세계조가비박물관 석부작박물관 제주허브동산 ㈜테디베어사파리 삼성혈 카멜리아힐 ㈜상효원△숙박=제주알호텔 제주토브 ㈜제이엠호텔 디셈버호텔 나인스파빌 천상의노을 제주팡숑예래펜션 예하게스트하우스 제주디오빌△여행업=(유)여행정보서비스 (유)제주자유여행사 ㈜제주속으로△음식=제주축협 한우프라자 아라점 바다풍경 장춘육당 ㈜스시호시카이 덤장삼계탕 황금어장. 이기봉 기자 daeun4680@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 1억5천만원 들여 '바다 수중비경' 관광상품 개발 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 1억5천만원 들여 '바다 수중비경' 관광상품 개발 등록 2017.12.28 11:11:44 작게 크게 【제주=뉴시스】강정만 기자 = 제주특별자치도는 내년 시책 사업으로 제주 바다 속의 동굴·아치·주상절리, 해저분화구, 수중여, 연산호 군란 등 수중 비경을 찾아 새로운 수중 관광상품으로 개발한다고 28일 밝혔다. 도는 1억5000만원을 투입해 해양탐방조사, 종합가이드북(동영상 등)을 제작하고 제주바다 수중경관을 전수 조사한 후  전문가로 선정 위원회를 구성해 내년 12월 중 제주 수중 비경 10선을 선정할 계획이다. 도는 제주 수중 비경 10선이 선정돼 홍보하게 되면 스킨스쿠버 애호가들이 4계절 연중 찾는 이색 수중 관광지가 돼 유어선, 주변 상가 등 지역 관광소득이 증가할 것으로 전망하고 있다. 그동안  해양업계에서는 제주바다는 수중 경관이 빼어나 국내외 년 5만여 명의 스킨스쿠버 관광객이 찾고 있으나 수중비경에 대한 정보가 부족하다는 의견을 제기해 왔다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 내년 관광산업 질적 성장 6대 핵심과제 추진 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 내년 관광산업 질적 성장 6대 핵심과제 추진 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 내년 관광산업 질적 성장 6대 핵심과제 추진 송고시간2017-12-24 06:00 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 관광시장 다변화·저가관광 개선·국제회의 복합지구 지정 등 (제주=연합뉴스) 김호천 기자 = 제주 관광산업의 질적 성장을 위해 관광시장 다변화, 국제회의 복합지구 지정 등 다양한 정책이 추진된다. '사드 금한령 풀리나' (제주=연합뉴스) 한국과 중국 간 갈등의 핵심인 사드 배치 문제와 관련한 정부의 입장 발표가 임박했던 지난 10월 31일 오전 상하이에서 출발한 중국인 관광객들이 제주국제공항을 통해 입국하고 있다. [연합뉴스 자료사진] 제주도는 2018년 관광정책의 목표를 '지역 주민과 상생하는 지속 가능한 관광도시 육성'으로 설정해 6대 핵심과제를 추진한다고 24일 밝혔다. 핵심과제는 마케팅 전략 변화와 관광시장 다변화, 저가관광 개선과 관광사업체 경쟁력 강화, 개별관광객 편의 제공, 일자리 창출 지원, 마이스(MICE) 개최 최적지 조성, 중문관광단지 국제회의 복합지구 지정이다. 광고 세부적으로는 중국 등 중화권에 대해서는 개별관광객 및 7개 테마 중심 목적 관광객 유치를 중점 추진한다. 말레이시아, 태국, 싱가포르 등 기존 직항 노선이 있는 동남아 지역을 중심으로 대도시를 공략하고, 경유 상품 등을 개발한다. 유튜브 등을 활용해 아시아 신흥시장과 구 미주 지역 관광객을 대상으로 인지도를 확대한다. 저가관광 개선 및 건전관광 질서를 확립하기 위해 송객수수료 제도를 개선하고, 유관기관과 합동으로 계도·단속을 강력히 시행한다. 제주관광정보센터를 중심으로 한 위치기반 서비스를 활용해 불편신고 즉시 현장으로 출동해 불편사항을 해소하고, 언어권별 자동안내 시스템을 구축한다. 우수관광사업체 제도를 보완, 개선해 관광품질관리협의체를 구성하고 '제주관광품질인증제'를 추진한다. 도내 스타트업 기업 10개소를 지원해 IT 융복합 벤처형 관광산업을 육성하고, ICT 기반 스마트 관광사업체를 지원해 새로운 관광산업 생태계를 조성한다. 외국어 통역 안내원 17명을 정규직으로 전환하고, 문화관광 해설사를 현재 153명에서 200명으로 확대 운영한다. 베트남, 태국어 등 소수 언어 관광통역 안내사도 양성한다. 제주관광 서비스 아카데미를 운영해 관광종사자의 경쟁력을 강화한다. 양질의 국제행사 유치를 위해 '제주 MICE 다목적 복합시설 확충사업'을 시작하고, 국제회의 참가자들에게 기존 '제주MICE카드'와 함께 제주사랑상품권을 제공해 재래시장 방문을 유도한다. 숙박, 쇼핑, 공연 등 연관산업 집적화를 통한 국제회의 산업을 육성하기 위해 제주국제컨벤션센터가 있는 중문관광단지를 국제회의 복합지구로 지정하는 방안을 추진한다. 6대 핵심과제와 세부 사업 관련 총 사업비는 420억원이다. 이승찬 도 관광국장은 "제주관광의 질적 성장을 위해 저가관광 개선과 건전관광 질서 확립을 위해 중앙정부에 지속해서 제도 개선을 건의하고 있다"고 설명했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2017/12/24 06:00 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 유병호, 문자 논란에 "송구…그 소통은 정상적인 것" 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 21 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 北전술핵 과시·野친일공세에…대통령실 "동북아 안보현실 엄중"(종합2보) 댓글수 9 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 올해 하반기 우수관광사업체 28곳 지정 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 올해 하반기 우수관광사업체 28곳 지정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도, 올해 하반기 우수관광사업체 28곳 지정 기자명 이소진 기자 입력 2017.12.29 11:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2017년 하반기 우수관광사업체에 28곳이 선정됐다.도는 지난 21일 제주도 우수관광사업체 평정위원회 심의를 진행한 결과 이같이 나타났다고 28일 밝혔다.부문별로 살펴보면 관광지 9곳(신규 3·재지정 6), 숙박 10곳(신규 2·재지정 8), 여행업 3곳(신규 1·재지정 2), 음식점 6곳(신규 1·재지정 5) 등이다. 지정기간은 내년 8월 1일부터 2019년 12월 31일까지다.우수관광사업체로 지정된 28곳은 우수관광사업체 지정서 및 인증패가 수여되며 홍보지원금 70만원이 지급된다. 이밖에 도 관광정보시스템 및 유관기관 홈페이지, 팸투어 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다. 이소진 기자 이소진 기자 lllrayoung@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>몸살 앓는 제주도, 관광정책 수정 긴급 &lt; 시민사회시선 &lt; 제2공항 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 몸살 앓는 제주도, 관광정책 수정 긴급 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 제2공항 시민사회시선 몸살 앓는 제주도, 관광정책 수정 긴급 기자명 최병근 기자 입력 2017.12.26 10:59 수정 2017.12.26 11:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제2공항 반대위, 도민삶이 최우선...미래 청사진 재편 촉구대책위, “김현미 장관은 제주도 환경수용력부터 조사하라” 제주 제2공항성산읍반대대책위원회와 제주 제2공항 반대범도민행동이 26일 오전 제주도의회 도민의 방에서 기자회견을 열고 있다.국토교통부가 28일부터 제2공항 기본계획용역 발주를 예고한 가운데 제2공항 반대대책위원회와 제주도내 시민사회단체들이 향후 발생하는 사태의 모든 책임은 모두 국토교통부장관과 담당 관료들에게 있다고 밝혔다.제주 제2공항성산읍반대대책위원회와 제2공항 반대 범도민행동은 26일 오전 제주도민의 방에서 기자회견을 열고 김현미 국토교통부 장관에게 “제주도의 환경수용력부터 조사하라”며 “제주도의 관광정책을 긴급하게 수정해야 한다”고 주장했다.이들은 제주도를 무한한 자원으로 여기고 단기간에 소진시키려는 모든 개발 논리와 토건논리를 반대한다는 뜻을 분명히 밝혔다.이들은 “지난 10년간 관광객이 3배나 늘어났음에도 불구하고 가계소득은 전국 최하위를 기록하고 있고 농가부채는 전국 최고”라며 “이 같은 제주도민의 조악한 삶의 조건을 개선하기 위해서는 질 낮은 관광정책의 긴급수정과 환경수용능력에 맞는 항공수요 관리에서부터 출발해야 한다”고 주장했다.특히 이를 해결하기 위한 방안으로 대책위 측은 제주도민 삶을 최우선으로 하는 미래 청사진을 새롭게 그려야 한다고 주장했다.이들은 “국토부가 제주도의 미래와 도민 운명을 가름짓는 주체가 돼서는 안된다”고 전제한 뒤 “국토부의 시각에는 토건과 대기업 면세점, 저가항공산업 발전만이 보일 뿐이고 제주도민 삶은 없다”고 규정했다.제주 제2공항성산읍반대대책위원회와 제주 제2공항 반대범도민행동이 26일 오전 제주도의회 도민의 방에서 기자회견을 열고 있다.이들은 원희룡 지사 책임도 크다고도 지적했다. 이들은 “원희룡 지사는 지역주민들 의사를 철저히 무시하고 왜곡하며 제2공항 입지선정 과정에서부터 불공정한 개입과 홍보를 일삼고 주민들을 호도했다”며 “성산읍 피해지역 주민들에게 일방적으로 희생과 양보를 강요했고 주민들 호소를 외면했다”고 비판했다.그러면서 이들은 “도지사의 책무는 도민들 안전과 행복을 책임지는 지사의 자격이 있나 묻고 싶다”며 “이는 능력의 문제가 아닌 양식과 도덕성 문제다. 최소한 양심과 일말의 책임감이 있다면 지금이라도 주민들을 위해 구체적인 대책을 세우고 주민들을 만나야 한다”고 촉구했다.문상빈 제주 제2공항반대범도민행동 집행위원장은 “이번 결정은 국토부의 일방적인 발표에 의해 추진됐다. 문재인 정부 들어서도 반복되고 있다”며 “국토부 내부 시스템에 의해 일방적으로 강행되는 고질적인 병폐를 해소하기 위해서 끝까지 싸워나갈 것”이라고 말했다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 저가관광 개선 등에 420억 투입-국민일보 시사 시사 &gt; 전체기사 제주도, 저가관광 개선 등에 420억 투입 내년 6대 관광정책 추진 입력 : 2017-12-25 19:01 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도는 내년 관광정책에 420억원을 투입해 저가관광 개선, 관광사업체 경쟁력 강화, 제주관광품질인증제 도입 등 6대 핵심과제를 추진한다고 25일 밝혔다. 핵심과제에는 마케팅 전략 변화와 관광시장 다변화, 일자리 창출 지원 등도 포함됐다. 도는 관광시장 다변화를 위해 중국 등 중화권에 대해서는 개별관광객 및 7개 테마 중심의 ‘목적관광객’ 유치에 주력할 방침이다. 또 기존 직항노선이 있는 동남아 지역 대도시를 공략하고, 아시아 신흥시장과 구 미주 지역 관광객을 대상으로 한 인지도 확대에도 나선다. 저가관광을 뿌리 뽑기 위해 송객수수료 제도를 개선하고, 유관기관과 합동으로 계도·단속을 강력히 시행한다. 영세 관광사업체 지원 및 여행업계 공동 마케팅도 실시한다. 우수관광사업체 제도를 보완·개선해 관광품질관리협의체를 구성하고, ‘제주관광품질인증제’를 도입한다. 일자리 창출을 위해 외국어 통역 안내원 정규직 전환 및 문화관광해설사 200명을 확대·배치한다. 도 관계자는 “양질의 국제행사 유치를 위해 제주국제컨벤션센터가 있는 중문관광단지를 국제회의 복합지구로 지정하는 절차에 돌입할 계획”이라고 밝혔다. 제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>'대안없는 과잉관광에 제주도가 죽어간다' 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 최신포토인기포토해외포토분야별포토연예스포츠슬라이드펫카드그래픽뉴스 홈 &gt; 포토 &gt; 사회 &gt; 사회일반 최근 슬라이드 선택 이전 다음 '대안없는 과잉관광에 제주도가 죽어간다' 2017/12/19 13:16 송고 이전 다음 정지 자동넘김 시작 자동넘김 멈춤 (서울=뉴스1) 성동훈 기자 = 19일 오전 서울 청와대 앞 분수광장에서 열린 '제주2공항 대통령 결단촉구 긴급기자회견 및 삭발식'에서 참석자들이 제주2공항 건설에 반대하는 손피켓을 들고 있다. 이번 기자회견에서 제주 제2공항 성산읍 반대대책위원회 관계자들은 '제주도는 관광객의 폭발적 증가에 무방비로 노출되어 있다'며 '정부는 환경수용능력 평가를 통해 제주도가 수용할 수 있는 적정한 관광객 수를 파악하고 그에따른 공항 확충 계획을 다시 설계해야 한다'고 밝혔다. 2017.12.19/뉴스1		zenism@ 기사원문보기 댓글보기 인기 화보 갤러리 [연예가화제] 3년 만에 관객 품으로 돌아온 BIFF [국회ㆍ정당] 윤석열 정부 첫 국감 시작..여야 전방위 격돌 [국방ㆍ외교] '바다 위 군사기지' 美 핵항모 로널드 레이건호, 부산 입항 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주4.3평화공원, 제주도 최우수 공영 관광지로 선정 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주4.3평화공원, 제주도 최우수 공영 관광지로 선정 파이낸셜뉴스입력 2017.12.20 16:37수정 2017.12.20 16:43 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 【제주=좌승훈기자】 제주도내 최우수 공영 관광지로 제주4.3평화공원이 선정됐다. 제주도는 공영관광지 운영평가위원회는 2017년 공영 관광지 운영 평가 결과 우수 공영관광지 8개소를 선정하고 20일 도청 홈페이지에 공표했다. 우수 관광지로 제주돌문화공원과 기당미술관이 각각 선정됐다. 장려는 제주해녀박물관, 천지연폭포, 민속자연사박물관 등 3곳이다. 올해 첫 도입된 발전상은 서귀포자연휴양림과 이중섭미술관이 선정됐다. 이번에 최우수 공영 관광지로 선정된 제주4.3평화공원은 제주4·3 발발 이후 70년 가까이 해원되지 못한 4·3 희생자의 넋을 위령하고 4·3의 역사적 의미를 되새겨 희생자의 명예 회복 및 평화와 인권 교육의 장으로 사용하기 위해 조성됐다. 한편 이번 평가는 공영관광지 31곳을 대상으로 지난 7월부터 11월까지 제주도 관광협회에 위탁해 평가를 진행했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광 위기극복 비상대책본부 추진상황 보고회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광 위기극복 비상대책본부 추진상황 보고회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 관광 위기극복 비상대책본부 추진상황 보고회 개최 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.12.20 18:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 20일 도청 본관 2층 삼다홀에서 '제주관광 위기극복 비상대책본부 추진상황 보고회'를 개최했다.이번 보고회는 최근 중국 베이징과 산둥지역에 한국 단체관광이 허용되는 등 방한관광이 제한적이나마 재개됨에 따라 저가관광을 퇴출하고, 목적형 개별관광객 확대 등 제주 관광의 체질 개선을 위한 부서별 대책과 제주관광공사 및 관광협회 유관기관의 방향성을 공유하기 위해 마련됐다. 원희룡 지사가 주재한 이날 회의에서 참가자들은 제주관광 위기극복 비상대책 본부 운영 상황 총괄보고와 함께 12개 유관 부서별 추진상황 보고 순으로 진행하고, 중국 의존 중심의 제주관광에서 탈피해 변화를 모색해야 한다는데 입을 모았다. 특히 각 부서에서는 △ACT(American Collage Testing) 제주유치 △교류 지역 다변화 △전세버스 차고지 확보 및 지원 △제주형 웰니스 의료관광 강화 △수출기업 및 지역상권 지원 △크루즈관광 활성화 △국제노선 다변화 및 신규 취항 △관광업체 및 종사자 실업급여 지원 등을 추진 계획으로 제시하며, 제주관광의 새로운 체질 마련에 힘을 보탤 것을 집중 논의했다. 또 돈을 주고 관광객을 데려오는 왜곡된 행태의 저가관광 퇴출과 일본, 동남아는 및 신규시장 개척에도 적극 노력해 가시적인 성과가 나타날 수 있도록 함은 물론 對중국 마케팅에 있어서도 고부가가치 목적형관광객 위주로 전환하고 우수 상품은 인센티브 제공을 추진하는 등의 계획을 밝히기도 했다. 이 자리에서 원희룡 지사는 "중국정부의 방한 제한 조치로 인해 제주관광이 위기가 왔다고 볼 수 있지만, 위기 극복을 위한 노력 등으로 나름대로 새로운 관광 여건 조성을 위한 의미 있는 시간이기도 했다"고 전했다. 원 지사는 "중국이라는 특정 국가에 의존하는 관광은 위기나 한계가 올 수 있기에 위기 대응 능력을 갖춰야 할 뿐만 아니라 양적 관광의 부작용, 난개발, 수용력의 한계, 저가 관광에 의한 지역경제 효과 미흡 등의 문제들을 깊이 돌이켜보고 다각적 극복방안을 진지하게 모색해보는 계기가 됐다"면서 "특히 다변화 부분에서는 5년 만에 일본인 관광객 증가세 전환, 말레이시아 에어아시아X 정기편 취항을 비롯한 노선 다양화로 동남아 관광객 유치 발판 마련 등의 의미 있는 성과가 나타나고 있다"고 말했다. 이어 "평창 올림픽을 계기로 중국 관광객이 한국을 방문하고 제주를 방문하게 됐을 때 이전의 문제들을 어떻게 근본적으로 개선할 것인가가 지속적인 과제로 남아있는 만큼 앞으로 관광분야의 질적 성장을 위해 전 부서가 시행 가능한 계획들을 수립해 적극적으로 추진해줄 달라"고 당부했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도의회, 오라관광단지 자본검증 위원 추천 거부...이유는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도의회, 오라관광단지 자본검증 위원 추천 거부...이유는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도의회, 오라관광단지 자본검증 위원 추천 거부...이유는? 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.12.22 18:51 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도의회가 오라관광단지 자본검증위원회 위원 추천을 거부했다.제주특별자치도는 공무원 2명을 비롯해 경제.회계.금융.법률.투자 단체가 추천한 6명과, 상공인단체 및 시민단체, 지역주민 추천 인사 3명 등 총 11명으로 자본검증위원회를 구성한다고 22일 밝혔다.당초에는 도의회에서도 위원 2명을 추천할 예정이었으나, 도의회는 21일 공문을 통해 위원을 추천하지 않겠다고 밝혔다.도의회는 조례나 법령에 도의원이 참여해야 한다는 규정이 없는 점 등을 불참사유로 들었으나, 그 이면에는 복잡한 속내가 있는 것으로 풀이된다.오라관광단지 사업의 중대한 분수령이 될 자본검증에 직접 '선수'로 뛰기 보다는 결과에 대한 심의역할에 주력하는 것이 바람직하다는 판단도 있었지만, 도의회 내부에서는 최근 의장 선출 및 버스 준공영제 관련 감사청구 의안 처리 표결 결과와도 무관치 않다는 얘기가 나오고 있다.원내 다수당임에도 불구하고 의장선거에서 소속의원을 당선시키지 못하고, 준공영제 감사청구 의안도 바른정당의 반대로 표결에서 부결되면서 체면을 크게 구긴 더불어민주당의 '감정'이 실려 있다는 것이다. 자본검증위 추천은 도의회에서 문화관광스포츠위원회로 하여금 하도록 했는데, 추천을 거부한 문화관광위원장은 더불어민주당 소속이다.  &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 사업체 종사자 대상 "리스크 관리 컨설팅"교육 실시 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 사업체 종사자 대상 "리스크 관리 컨설팅"교육 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 사업체 종사자 대상 "리스크 관리 컨설팅"교육 실시 기자명 고병수 기자 입력 2017.12.24 04:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)와 제주국제자유도시개발센터(이사장 이광희)는 21일 제주웰컴센터에서 도내 관광사업체를 대상으로 관광객과의 분쟁 및 리스크 관리 컨설팅 교육을 실시했다고 23일 밝혔다.이번 교육은 JDC 상생협력 프로그램 일환으로 추진됐으며 “2018 제주 방문의 해”를 앞두고 도내 영세 관광사업체들의 경쟁력 강화를 도모하고 사업체 경영환경 개선과 종사자의 직무능력 향상을 목적으로 관광일선에서 발생하는 다양한 분쟁 및 리스크 관리를 위한 체계적인 컨설팅도 함께 진행했다.강의에서 한국소비자원 제주여행소비자 권인 증진센터 오흥욱 센터장은 "급속히 발전하고 있는 정보통신의 발달 및 개별관광객, 외국인 관광객 증가 등으로 인해 이륜차, 게스트하우스, 렌터카 등 다양한 제주관광 현장에서 소비자 불만(보상) 사례가 접수되고 있다"며 "해당 사업장에서도 평소 사안 발생시 소비자원을 통한 체계적 대응과 블랙컨슈머 등에 대한 대처 방안 매뉴얼화를 통한 사업체 경영리스크 최소화에 만전을 기할 필요가 있음"을 강조했다. 협회 관계자는 "앞으로도 도내 관광사업체 종사자 대상 소비자 분쟁 및 리스크 관리 교육을 통해 제주관광 만족도 향상 및 질적성장 도모를 위한 다양한 교육의 지속적인 실시로 제주관광 대외 경쟁력 강화 등 선진관광 질서 확립에 기여해 나갈 계획"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회-JDC, '해외시장 다변화 실현위한 워크숍'실시 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-JDC, '해외시장 다변화 실현위한 워크숍'실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회-JDC, '해외시장 다변화 실현위한 워크숍'실시 기자명 고병수 기자 입력 2017.12.18 15:55 수정 2017.12.18 15:56 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도관광협회(회장 김영진)와 제주국제자유도시개발센터(이사장 이광희)는 해외시장 다변화 및 잠재시장 개척을 위한 워크숍이 16일부터 20일까지 도내 관광사업체 60여명이 참석한 가운데 말레이시아 쿠알라룸프르 일원에서 실시되고 있다고 18일 밝혔다.이번 워크숍은 지난 12일 에어아시아에서 제주-말레이시아간 정기노선(주 4회/월,화,수,토)이 취항하면서 말레이시아 관광객 대상 고부가가치 상품개발 및 활성화를 위해 추진됐다.또한 이슬람문화 인프라 구축을 위한 현지 문화 체험 및 시설 탐방을 진행하며 제주에 접목시킬 수 있는 방안을 모색하고 있다.  특히 이슬람문화의 이해를 돕기 위해 이영근 한국관광공사 쿠알라룸프르지사장을 초빙해 특강도 진행됐다.한편 방한 무슬림 관광객의 만족도는 외래관광객 평균 대비 낮은편으로 음식 및 종교활동에 대한 만족도가 매우 낮다는 것. 이는 무슬림 관광시장 개척에 매우 중요한 요인으로 종교활동을 진행할 수 있는 기도실 및 할랄인증 음식점(유통)을 조속히 조성해야 될 이유기도 하다. 관광협회 관계자는 "이번 에어아시아의 정기노선 취항으로 하늘길이 한층 넓어졌다"며 "제주관광의 질적성장을 실현시킬 수 있는 교두보가 됐으면 한다"고 했다.이어 "이번 워크숍을 통해 도내 관광사업체들이 무슬림 관광시장에 대한 이해도를 높이고, 인프라 구축 및 대고객(응대)서비스 제공을 위해 중요한 기회가 됐다"며 "인프라 구축과 함께 무슬림 관광시장에 대한 교육도 병행돼야 한다"고 덧붙였다.한편 관광협회는 해외시장 다변화 및 잠재시장 개척을 위한 사업으로 라오스, 일본에 이어 말레이시아 지역의 무슬림 관광객 대상 수용태세 개선 및 개별관광객 유치를 위해 추진하고 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>방중 정상회담 계기로 제주도 관광사업 주목… ‘제주 신항 코아루 디펠리체’ 눈길 - 대한전문건설신문 × 전체기사 뉴스종합 전체 종합 기획 산업 기술 환경 부동산·개발 해설 비즈니스&amp; 전문 광장 전체 전문건설광장 조합소식 동정 업계단신 인사 게시판 오피니언 전체 논단 보라매칼럼 전문가 視覺 라이프 전체 라이프 영화·전시 금주의 새 책 그래픽 뉴스 문화단신 잠깐 시사상식 전문의가 알려주는 건강 지식백과 전문의가 알려주는 양·한방 건강지식 입찰정보 전체 공사입찰 용역입찰 구매입찰 공사낙찰 용역낙찰 구매낙찰 열기버튼 전체메뉴 뉴스종합 종합 산업 기획 기술 환경 부동산·개발 해설 비즈니스&amp; 전문 광장 전문건설광장 조합소식 동정 업계단신 인사 게시판 오피니언 논단 전문가 視覺 보라매칼럼 라이프 라이프 영화·전시 금주의 새 책 그래픽 뉴스 잠깐 시사상식 전문의가 알려주는 양·한방 건강지식 도서판매 입찰정보 참여마당 독자마당 구인/구직 공고 기사검색 검색 2022-10-11 12:45 (화) 처음으로 로그인 회원가입 전체기사 이전 다음 방중 정상회담 계기로 제주도 관광사업 주목… ‘제주 신항 코아루 디펠리체’ 눈길 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 뉴스종합 부동산·개발 방중 정상회담 계기로 제주도 관광사업 주목… ‘제주 신항 코아루 디펠리체’ 눈길 류승훈 기자 승인 2017.12.22 10:00 댓글 0 페이스북 트위터 카카오스토리 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 내년 2월 한중 경제장관회의와 중국의 명절 춘제(春節)를 앞두고 열린 방중 정상회담 이후 한중 경제협력 활성화에 대한 국민들의 관심이 집중되고 있다. 이에 맞춰 제주도 부동산 시장에도 순풍이 불어올지 귀추가 주목된다.양국은 한중 정상회담과 경제 관련 협의 등을 통해 사드 배치로 인한 갈등의 수습과 경제협력을 통한 상생발전의 길을 모색하기로 합의한 바 있으며, 이번 방중외교를 통해 ‘사드’에 대한 이견은 남겨둔 채 경제교류 활성화와 ‘한중 핫라인’ 개설 등 한중관계의 정상화가 이루어질 것인가에 대한 귀추가 주목되고 있다.특히 2월에는 중국 최대 명절인 춘제(2월 15일~25일)가 시작되는데, 관광업계 또한 춘제 수요에 맞춰 중국 고객을 잡기 위한 전략을 마련하고 있다. 그 중 사드 여파로 피해가 컸던 지역인 제주도에 시선이 모이고 있다.춘제기간 중 제주도 내 중국인 관광객 추이는 지난해와 올해에 이어 감소세를 보였지만 방중외교를 기점으로 한중 경협 성과를 보여줄 절호의 기회로 평가되고 있어, 제주도 관광사업에 대한 주목도가 높아지고 있는 실정이다.‘제주 신항 코아루 디펠리체’도 이 같은 상황에 따라 주목되고 있는 제주도 오피스텔 중 하나로, 오피스텔 인근 제주신항 개발 예정지에 크루즈 터미널과 호텔, 쇼핑몰, 오션파크 등 해양관광 및 문화지구가 조성될 예정이어서 그에 따른 수혜도 볼 수 있을 것으로 예상되고 있다.제주시 일도2동 일대에 지하 4층~지상 10층 규모로 들어서는 ‘제주신항 코아루 디펠리체’는 총 422실이 공급되며, 전용면적 25㎡와 51㎡ 위주의 19개 타입으로 구성된다. 특히 제주의 푸른 바다를 조망으로 누릴 수 있어 눈길을 끌고 있으며, 사업지 반경 1km 내로 5개 버스 노선이 운행되고 화북공업단지와도 인접해 편리한 교통망과 직주근접 입지를 두루 갖췄다.단지는 지진 등 재해로부터의 안전성을 확보하기 위해 지반의 상태에 따라 달라지는 지역계수를 반영해 법적 내진설계를 적용했으며, 내부공간으로는 소파, 침대, TV, 전자레인지, 무선 진공청소기 등 입주자를 위한 퍼펙트 시스템을 무상제공한다.주변으로는 도보 15분 거리에 사라봉공원과 신산공원 등 제주 공원이 위치해 있으며, 근처에는 제주동초등학교와 인화초등학교, 제주여자상업고등학교, 제주대학교 사라캠퍼스, 제주교육대학교가 위치하는 등 다양한 학군을 보유하고 있다.한편 제주신항 코아루 디펠리체는 계약자를 대상으로 한시적 특별 혜택을 제공한다. 현재 서울홍보관(서울 강남구 역삼동) 및 제주홍보관(제주시 신형로)에서 분양 상담을 받을 수 있다. [류승훈 기자] ryush@kosca.or.kr 저작권자 © 대한전문건설신문 무단전재 및 재배포 금지 류승훈 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 주요기사 업계단신 조달청, 한주간 39건에 1290억 공사 입찰 집행 조달청은 10일부터 14일까지 한주간 총 39건에 1290억원 상당의 공사입찰을 집행한다고 11일 밝혔다.이번주 집행예정인 39건 중 32건은 지역제한 입찰 또는 지역의무 공동도급... 인사 [인사] 중소벤처기업부 ◇과장급 전보=△울산지방중소벤처기업청장 이종택 인사 [인사] 산업통상자원부 ◇부이사관 승진=△재생에너지정책과장 이재식 △통상정책총괄과장 조수정 △무역정책과장 조웅환◇서기관 승진=△2차관실 이주노 △반도체디스플레이과 김건혁 △반도체디스플레이과 임용기 △기계... 논설 노조 불법행위 일제 단속에 거는 기대 정부가 이달 17일부터 11월 말까지 관계부처 합동으로 실시하려고 하는 건설현장의 불법행위 근절을 위한 일제 점검·단속에 건설업계는 기대가 크다. 건설업체들이 지속적으로 피해를 호... [기자수첩] “노무관리 이렇게 힘들어서야” [기자수첩] “노무관리 이렇게 힘들어서야” “전문건설, 데이터 활용 못하면 원도급사와 정보 격차 더 커져” “전문건설, 데이터 활용 못하면 원도급사와 정보 격차 더 커져” 이슈포토 [법률] 중대재해처벌법(중대산업재해)의 실무상 쟁점(3) [법률] 중대재해처벌법(중대산업재해)의 실무상 쟁점(3) 동반성장지수 발표…최우수등급 건설사 작년대비 30% 증가 동반성장지수 발표…최우수등급 건설사 작년대비 30% 증가 ‘납품단가 연동 갈등’ 확산… 올 건설분쟁신고 중 20% 넘을듯 ‘납품단가 연동 갈등’ 확산… 올 건설분쟁신고 중 20% 넘을듯 [법 상담] 하도급분쟁조정협의회 제도의 장점 [법 상담] 하도급분쟁조정협의회 제도의 장점 ‘건설기능인 승급교육’ 6개 직종부터 실시 ‘건설기능인 승급교육’ 6개 직종부터 실시 [보라매칼럼] 태양광 혐오는 안 된다 [보라매칼럼] 태양광 혐오는 안 된다 최신뉴스 [기자수첩] “노무관리 이렇게 힘들어서야” [기자수첩] “노무관리 이렇게 힘들어서야” “전문건설, 데이터 활용 못하면 원도급사와 정보 격차 더 커져” “전문건설, 데이터 활용 못하면 원도급사와 정보 격차 더 커져” [세무회계] 증자에 따른 이익의 증여(2) [세무회계] 증자에 따른 이익의 증여(2) [법 상담] 계약금액이 변경된 경우 선급금 정산 방식 [법 상담] 계약금액이 변경된 경우 선급금 정산 방식 [전문가 視覺] 내년까지 건설기업의 키워드는 ‘생존’ [전문가 視覺] 내년까지 건설기업의 키워드는 ‘생존’ 포토뉴스 [기자수첩] “노무관리 이렇게 힘들어서야” “전문건설, 데이터 활용 못하면 원도급사와 정보 격차 더 커져” [세무회계] 증자에 따른 이익의 증여(2) [법 상담] 계약금액이 변경된 경우 선급금 정산 방식 [기자수첩] “노무관리 이렇게 힘들어서야” “전문건설, 데이터 활용 못하면 원도급사와 정보 격차 더 커져” [세무회계] 증자에 따른 이익의 증여(2) [법 상담] 계약금액이 변경된 경우 선급금 정산 방식 인기뉴스 1 한노총 소속 사칭 노사교섭 요구 횡포…사칭 행위 근절책 세워야 2 해외 건설 수주 3분기까지 224억 달러 돌파 3 원희룡 장관 “노조 불법행위, 부처 공동으로 통합 대처” 4 법원 “서면 미교부는 명백한 위반”…미교부 갑질 제재 확대되나 5 “BIM은 시대 요구… 투자 없인 성공 못해요” “BIM은 시대 요구… 투자 없인 성공 못해요” 6 “외국기업이 국내기업에 갑질해도 하도급법 적용 안돼” 7 [법 상담] 우레탄 도막공사의 하자책임 범위 [법 상담] 우레탄 도막공사의 하자책임 범위 8 국회 국감, 4일 시작 닫기버튼 논단 [논단] 소득 양극화를 부르는 ‘공간 양극화’ [논단] 소득 양극화를 부르는 ‘공간 양극화’ ‘균형발전’이 화두다. 공간 양극화를 시정하기 위해서다. 한국엔 소득 양극화에 목소리를 내는 사람들이 많다. 하지만 공간 양극화에 대해선 놀라우리만치 무관심하다. 진짜 문제는 공간... 전문가 視覺 [전문가 視覺] 내년까지 건설기업의 키워드는 ‘생존’ [전문가 視覺] 내년까지 건설기업의 키워드는 ‘생존’ 2008년 글로벌 금융위기를 겪은 이후 건설경기는 6년 이상의 장기불황을 겪었다. 금융위기로 인해 경제성장률은 곤두박질쳤고, 환율은 급등했다. 위기를 극복하는 과정에서 불어난 유동... 보라매칼럼 [보라매칼럼] 재건축 규제 개선은 지금이 적기 [보라매칼럼] 재건축 규제 개선은 지금이 적기 몇 년 전 한 대형건설사 마케팅 담당자에게 “서울 아파트 재건축 활성화를 위해 걷어내야 할 규제가 무엇인가”라고 물었다. 그는 망설임 없이 ‘분양가 상한제’와 ‘재건축 부담금’을 ... 건설업 法 상담소 [법 상담] 계약금액이 변경된 경우 선급금 정산 방식 [법 상담] 계약금액이 변경된 경우 선급금 정산 방식 A사는 B사로부터 공사를 도급받으면서, 선급금을 지급받은 후 선급금보증서를 발급받아 B사에게 교부했다. 도급계약서에는 ‘정부 입찰·계약 집행기준’의 문구와 같이 “선급금은 기성부분... 이수용 세무사의 '건설기업 세무회계' [세무회계] 증자에 따른 이익의 증여(2) [세무회계] 증자에 따른 이익의 증여(2) 3. 시가보다 낮은 금액으로 신규주식을 발행하고 일부 주주의 신주인수권포기를 기존주주 또는 제3자에게 배정한 경우실권주를 재배정하지 않는 경우에는 특수관계가 존재하는 경우에만 과세... 피플&amp;이슈 “전문건설, 데이터 활용 못하면 원도급사와 정보 격차 더 커져” “전문건설, 데이터 활용 못하면 원도급사와 정보 격차 더 커져” 정부가 각 부처 및 공공기관이 보유한 자산과 역량을 민간이 함께 활용할 수 있도록 하겠다는 방침을 잇따라 발표하고 있다. 공공에서만 가지고 있던 데이터들을 개방·공유하고 규제 관리... 전문의가 알려주는 양·한방 건강지식 [건강] 과민성장증후군의 원인 [건강] 과민성장증후군의 원인 과민성장증후군은 대변의 형태와 그 빈도 변화와 관련된 복통이 주된 증상으로 만성적인 증상을 나타내는 기능성 위장 장애를 말합니다.복통이 배변 변화와 함께 6개월 이상 나타날 때 진... 키워드로 읽는 ‘핫’한 건설 키워드로 읽는 ‘핫’한 건설 - 벌떼입찰건설사가 공공택지 낙찰 가능성을 높이기 위해 페이퍼컴퍼니와 같은 계열사를 동원해 편법입찰을 하는 행위를 뜻한다. 이와 관련해 국토교통부와 한국토지주택공사는 ‘벌떼입찰 근절 대책’을 마련, 해당 관행을 뿌리뽑겠다고 발... 법무법인 지평의 법률이야기 [법률] 중대재해처벌법(중대산업재해)의 실무상 쟁점(3) [법률] 중대재해처벌법(중대산업재해)의 실무상 쟁점(3) 중대재해 처벌 등에 관한 법률에서는 법인 또는 기관이 실질적으로 지배·운영·관리하는 사업 또는 사업장에서 경영책임자 등의 안전보건 확보의무를 정하고 있습니다.도급, 용역, 위탁 등... 매체소개 도서판매 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 동작구 보라매로5길 15 전문건설회관 17층 대표전화 : 02-3284-1050 팩스 : 02-3284-1061 청소년보호책임자 : 김원진 기사배열책임자 : 반상규 법인명 : 대한전문건설신문사 제호 : 대한전문건설신문 등록번호 : 서울, 자00363 등록일 : 2011-12-07 발행일 : 2011-12-07 대한전문건설신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 대한전문건설신문. All rights reserved. mail to 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 제주시티투어버스 '순항' - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회 제주시티투어버스 '순항' 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회 제주시티투어버스 '순항' 제주CBS 박정섭 기자 메일보내기 2017-12-04 10:50 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 11월 한달 이용객, 전년보다 70% 늘어…통역안내원 서비스도 각광 (사진=자료사진) 제주황금버스와 시티투어버스 통합 이후 지난달부터 운행에 나선 '제주시티투어버스'가 순항하고 있다. 제주도관광협회는 제주방문 관광객의 제주시내권 교통관광 편의와 서비스 질 향상을 위해 새로 운항한 '제주시티투어버스'가 지난 11월 한 달간 관광 비수기에도 4324명이 이용, 지난해 11월보다 70% 늘었다고 밝혔다.이는 개별관광객의 도심관광 편의를 위해 운행코스와 이용요금 등을 이용자 중심으로 전면 개편하고, 내국인 탑승 확대를 통해 수요층을 확보한 결과다.제주시티투어버스는 제주 시내 관광객 유동인구 분석 데이터를 기반으로 관광객 교통관광의 편의성과 지역상권 활성화에 비중을 두고 운행코스를 재구성했다.운행코스는 제주국제공항을 시.종점으로 동문시장과 제주시민속오일시장 등 재래시장과 용두암, 사라봉, 민속자연사박물관, 어영해안도로 등 주요 관광지를 돌고 있다. 특히 오전 9시부터 오후 7시까지 하루 9차례 운행해 1일 요금제를 6천 원에서 1만2천 원으로 세분화하고, 3천 원에 이용할 수 있는 1회 요금제도 추가했다.여기에 전문지식과 외국어 실력을 갖춘 통역안내원들의 친절 서비스가 더해져 관광객들의 이용 만족도를 높였다는 게 도관광협회의 설명이다.이들의 친절 서비스는 제주도청 '칭찬합시다' 게시판에 '관공서, 학교, 직장 등 직원 친절교육이 필요한 곳은 제주시티투어버스를 적극 추천한다'는 이용객의 글까지 오르며 좋은 평가를 받고 있다.내년 4월에는 2층버스 2대도 추가 도입되고, 주말 야간테마코스 운영해 제주시티투어버스의 매력을 확대해 나갈 계획이다.제주도관광협회는 "제주시티투어버스의 인지도가 점점 높아지고 있고, 중국의 사드 보복 완화로 중국관광객 증가가 예상되는 등 긍정적 요인들이 이용객의 증가로 이어질 것"이라고 내다봤다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" [칼럼]핵위협 공포에 휩싸인 한반도 금감원 '수상한 외환거래' 이달 중 검사 마무리 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" 노벨상 버냉키, 후배 조언 요청에 "내 인생의 교훈은…" "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 관광인의 밤 송년 행사 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 관광인의 밤 송년 행사 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 관광인의 밤 송년 행사 정용기 기자 승인 2017.12.21 14:35 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 지난 20일 메종글래드 제주호텔에서 도내 관광업계 관계자 등 800여 명이 참석한 가운데 제주관광인 송년의 밤 행사를 개최했다.이날 김영진 제주도관광협회장은 “업계의 자구노력을 통해 위기를 변화의 기회로 활용해야 한다”며 “도내 관광업계의 상생협력 프로그램과 경쟁력 강화를 위한 사업들을 지속 추진하겠다”고 말했다.행사에서는 관광진흥 유공자 20명에 대한 표창과 우수공영관광지 8곳에 대한 시상도 이뤄졌다. ▲관광진흥유공자 △제주도지사 표창=박은경 랴센세브 빅토르 문영기 이병기 오동철 변재홍 김광미 이근식 강경호 김은영 고영심 △제주도의회 의장 표창=김옥자 김정배 김계한 △한국관광협회 중앙회장 표창=남유주 최대현 △제주도관광협회장 표창=김수연 오은영 안숙주 고민경▲우수 공영관광지 △최우수상=제주 4·3평화공원 △우수상=제주돌문화공원 기당미술관 △장려상=제주해녀박물관 천지연폭포 민속자연사박물관 △발전상=서귀포자연휴양림 이중섭미술관. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 내년부터 일반·학생대상 관광교육 실시 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 내년부터 일반·학생대상 관광교육 실시 등록 2017.12.07 11:11:52 작게 크게 【제주=뉴시스】강정만 기자 = 제주특별자치도는 일반인과 학생을 대상으로 관광교육종합계획을 마련해 내년부터 시행한다고 7일 밝혔다. 제주도는 지난 4월부터 이 계획 수립을 위해 도와 교육청, 관광공사, 관광협회 등 관련 워킹그룹을 구성하고, 지난 6일 최종보고회를 개최해 워킹그룹에서 제기된 의견, 관광교육에 대한 종합적인 여건과 실태 분석, 도민 의견 등을 수렴했다. 이 계획에는 ▲ 관광교육의 비전, 목표 및 체계 ▲ 범 도민 관광친절 수용태세 확립방안 ▲ 교육 인프라 및 환경 조성 방안 ▲관광교육 전문인력 육성방안 ▲관광교육 참여촉진 방안 ▲관련기관 역할 분담 및 종합관리시스템 구축방안 등이 포함됐다. 도는 내년부터 이번 관광교육종합계획(2018년~2020년)을 바탕으로,   도민 대상 관광교육은 관광객과 서비스 개선이 우선 필요한 곳인 관광지, 식당, 택시 등을 대상으로 실시하고, 온라인 교육 및 찾아가는 교육 프로그램을 운영한다. 학생은 제주어 보전교육, 제주 이해 교육, 인류 무형문화유산 제주해녀문화 이해 교육 및 세계자연유산 제주사랑 생태환경 관광교육 등으로 실시된다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>함양군, 최대 관광지 제주도서 함양곶감 선보인다…곶감·농특산물 유통 등 공동발전 도모 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 함양군, 최대 관광지 제주도서 함양곶감 선보인다…곶감·농특산물 유통 등 공동발전 도모 허울만 좋은 치료감호제도…"적극적 치료감호 청구 필요" "공예체험·공방투어 떠나요"…종로구, 15일 북촌공방축제 개최 2022년 10월 11일(화) 자문위원단 독자권익위원회 제보24시 전체메뉴 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 검색버튼 함양군, 최대 관광지 제주도서 함양곶감 선보인다…곶감·농특산물 유통 등 공동발전 도모 기사승인 2017. 12. 13. 12:21 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 20171213_0914220지난 11일 제주시 하나로마트에서 함양군과 함양농협, 제주시 농협이 참여해 함양곶감 판매확대를 위한 함양군-유통업체간 업무협약을 체결했다./제공=함양군함양 박현섭 기자 = 경남 함양군 곶감이 우리나라 최대 관광지 제주도에서 본격 선을 보인다.함양군은 지난 11일 제주시 하나로마트에서 함양농협, 제주시농협과 함께 함양곶감 판매확대를 위한 함양군-유통업체간 업무협약을 체결하고, 함양 곶감과 농특산물을 판매한다고 13일 밝혔다.군은 3자 협약을 통해 제주 하나로마트 내 함양곶감과 농특산물의 판매 확대는 물론 안정적인 곶감 판로 확보를 통해 농가 소득 증대에 큰 역할을 할 것으로 기대하고 있다. 이에 제주도 현지에서 특판행사를 비롯한 다양한 교류행사를 가질 예정이다.또 국내 유통을 통한 상생의 장을 마련하는 것은 물론 유통확대를 위한 협력사업을 추진하고 생산자의 권익보호 및 소비자의 안전한 먹거리 제공을 위한 역할을 수행해 상생을 위해 힘을 모으기로 했다. 1975년 설립된 제주시농협은 신용지점 17개소, 하나로마트 3개를 포함한 경제사업장 10개소 등을 운영하고 있으며, 마트의 1년 매출액이 1500억원에 이를 정도로 많은 상품을 판매하고 있다.군 관계자는 “이번 제주시와의 업무협약을 통해 제주를 찾는 관광객들에게 청정 함양에서 생산된 함양곶감과 농특산물의 안정적인 유통망 확보로 인지도를 높여, 지역 농민들의 소득향상에 큰 도움이 될 것으로 기대한다”라고 밝혔다. 박현섭 기자 pju23@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 연예가 핫 뉴스 1 북한, 전투기 150대 동시출격…군, F-35A로 맞대응 2 野 “한동훈 美 출장에 현직 검사 동행”…韓 “실무자 수.. 3 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 4 삼성전자 “우크라 지사, 미사일 직격 면해… 인명 피해.. 5 ‘음주측정 불응·경찰폭행’ 장용준 14일 대법 선고 6 1000만원 짜리 골프 원숭이 NFT ‘오픈런 대란’ 1 ‘환승연애2’ 정현규♥성해은, 달달함 통했나…티빙 유료가.. 2 임영웅의 기록은 어디까지? 유튜브 조회수 17억 뷰 눈앞.. 3 ‘숨은 히어로’ 김하성, 이번엔 111승 다저스 사냥 ‘.. 4 정동원x박지원, 훈훈한 케미…“‘러브 액츄얼리’로 만나.. 5 배우 선우은숙, 아나운서 유영재와 결혼 “최근 혼인신고”.. 6 kt, NC 5-2로 꺾고 준플레이오프 직행에 1승만 남.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도, 중국인 웨딩 관광객 유치 이벤트 마련 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 제주도, 중국인 웨딩 관광객 유치 이벤트 마련 홍석준 기자 승인 2017.12.07 13:20 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 12월 8~9일 이틀간 중국 사천성 천두에서 웨딩관광설명회 개최 예비부부 70쌍 초청 소비자 설명회도 … 질적관광 전환 본격화 올 10월 진행된 웨딩 팸투어와 단편영화 촬영 모습. /사진=제주특별자치도 [미디어제주 홍석준 기자] 중국인 웨딩 관광객을 제주에 유치하기 위한 이벤트가 마련된다. 제주특별자치도와 제주관광공사는 12월 8일과 9일 이틀간 중국 사천성 청두에서 제주 웨딩관광설명회와 소비자 이벤트를 진행한다고 7일 밝혔다. 이번 웨딩관광설명회는 특수 목적의 관광상품 개발을 통해 중국 현지와 도내 업계를 연결한 고부가가치 관광 수요를 창출, 제주를 찾는 중국인 관광객의 체질 개선을 위해 마련됐다. 제주도는 지난 10월 19일부터 25일까지 청두 현지의 웨딩업체 관계자를 제주로 초청, 웨딩 인프라 답사와 단편영화 촬영, 제주웨딩협회와 현지 웨딩업체간 미니 트래블마트를 개최, 중국 현지와 도내 업계간 네트워크를 구축한 바 있다. 이번 설명회는 그동안의 협력 시스템 구축을 바탕으로 제주웨딩협회와 웨딩 전문 여행사 등 11개 도내 업체가 직접 참여하는 B2B 트래블마트, 청두 현지 업계를 대상으로 한 제주 웨딩관광설명회, 예비부부 70쌍 초청 소비자 설명회도 함께 마련될 예정이다. 이승찬 도 관광국장은 “사드 이전부터 제주가 안고 있던 저가관광 등의 문제점을 개선하는 방향으로 대 중국 마케팅을 지속적으로 추진할 계획”이라면서 “이번 설명회와 소비자 이벤트를 통해 중국 아웃바운드 핵심 소비층인 80~90년생들의 개성 있는 해외 웨딩 패턴에 부합하는 목적지로서 제주를 브랜딩하고 이를 통한 고부가가치 웨딩상품 개발과 홍보에 적극 나서겠다”고 말했다. Tag #웨딩관광 #제주특별자치도 #중국 #청두 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
   </si>
   <si>
     <t>제주도 우도맛집 섬소나이, 피자와 짬뽕으로 관광객들 입맛유혹 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.07.21 (목) 흐림동두천 22.7℃ 구름조금강릉 22.3℃ 구름조금서울 24.4℃ 구름많음대전 23.5℃ 구름많음대구 25.7℃ 구름많음울산 26.0℃ 구름많음광주 24.3℃ 구름조금부산 25.7℃ 흐림고창 23.9℃ 구름조금제주 25.2℃ 구름많음강화 24.6℃ 구름많음보은 22.2℃ 흐림금산 22.8℃ 구름많음강진군 24.5℃ 흐림경주시 25.4℃ 맑음거제 25.3℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 제주도 우도맛집 섬소나이, 피자와 짬뽕으로 관광객들 입맛유혹 강유라 기자 news@pcss.co.kr 등록 2017.12.12 14:03:31 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 제주도는 우도, 성산일출봉 등 다양한 볼거리와 제주도만의 특색있는 음식을 제공하는 맛집들이 많다.특히 섬의 형태가 소가 드러누웠거나 머리를 내민 모습과 같은 우도는 제주도를 방문하는 방문객들이 주로 찾는 관광지로 알려져 있다.남쪽 해안과 북동쪽 탁진포를 제외한 모든 해안에는 해식애가 발달했고, 한라산의 기생화산인 쇠머리오름이 있을 뿐 섬 전체가 하나의 용암대지이며, 고도 30m 이내의 넓고 비옥한 평지는 색다른 여행의 추억과 볼거리를 제공한다.부서진 산호로 이루어진 백사장 등 아름다운 경관을 자랑하는 우도 8경이 알려진 우도에는 매년 350만 명 이상의 관광객이 찾는 섬으로 볼거리 외에도 다양한 맛집이 있다.이 가운데 제주 우도맛집 섬소나이에서는 우도 주민들이나 성산일출봉을 찾는 관광객들에게 좀처럼 섬에서 맛볼 수 없는 피자와 짬뽕을 제공한다.섬소나이의 대표메뉴인 피자는 모든 피자 도우를 우도 특산물인 톳을 넣어 직접 만들고 숙성해 사용하며, 상큼한 파인애플과 토마토, 고소한 우도땅콩, 치즈가 들어간 피자로 바삭한 식감과 담백하기 때문에 우도 땅콩막걸리와 함께 먹으면 더욱 맛있게 즐길 수 있다.또 다른 대표메뉴인 짬뽕의 육수는 12시간 직접 끓이고 한약재 등 10가지 이상의 재료가 들어가며, 신선한 해산물과 우도 특산물인 톳을 넣어 만든 톳면과 모자반 고명을 맛볼 수 있다.섬소나이 관계자는 "주문 즉시 한 그릇씩 조리하며 짬뽕에 들어간 해산물은 모두 국산을 사용해서 조리하고 있다"면서 "신선한 재료사용을 원칙으로 고기잡이배가 운행하는 날에만 오픈하고 있다"고 전했다.한편, 제주도 우도맛집 섬소나이는 하고수동해수욕장 앞에 위치해 있으며 자세한 문의 사항은 대표전화를 통해 확인 가능하다. 강유라 기자 의 전체기사 보기 관련태그 #섬소나이 #우도맛집 강유라 기자 기업현장을 찾고 있습니다. 알아두면 쓸모있는 우리 주변의 정보를 모으겠습니다. 이메일news@pcss.co.kr 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 좌담회 [폴리 7월 좌담회 전문①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” 홍준표 “정권교체해서 ‘제2박근혜 사태’ 돼선 안돼…우리가 도와줘야” 다주택자 세부담 낮아진다…종부세 중과제도 폐지키로 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [리얼미터] 문재인정부 탈북어민 북송 ‘잘한 결정51.1%-잘못한 결정42.1%’ [조원C&amp;I] 국힘 대표 ‘이준석25.2%-안철수18.3%’, 장제원4.4%-권성동3.1% 많이 본 기사 1[여론조사공정] 尹대통령 지지율35.9% 부정평가61.9%, ‘국힘45%-민주35.9%’ 2남유럽 폭염에 사망 1천500명, 덴마크 81년 만 최고기온…북유럽도 전례 없는 무더위 3[조원C&amp;I] 국힘 대표 ‘이준석25.2%-안철수18.3%’, 장제원4.4%-권성동3.1% 4[리얼미터] 문재인정부 탈북어민 북송 ‘잘한 결정51.1%-잘못한 결정42.1%’ 5YPT테니스 봉사팀 경기도 하남시 장애인들과 테니스 소통 6인터넷신문 1세대 ‘폴리뉴스’ &lt;2022 인터넷신문 언론대상&gt; 특별상 수상 7[스페셜인터뷰 전문 ②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김해야” 이슈 더보기 [폴리 7월 좌담회 전문①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리뉴스 한유성 기자] &lt;폴리뉴스&gt;와 월간 &lt;폴리피플&gt;은 7월 19일 “윤석열 정부 첫 해, 경제 위기 속에 총체적 난국이 우려된다”는 주제로 정국좌담회를 가졌다. 이날 좌담회에는 홍형식 한길리서치 소장, 차재원 부산 가톨릭대학교 특임교수, 황장수 미래경영연구소장, 그리고 본지 김능구 폴리뉴스 대표가 참석했다. 좌담회 첫 번째 주제는 취임 두 달이 지나며 30%대 초반까지 곤두박질친 윤석열 대통령의 지지율, 그 원인과 극복 방안을 다뤘다. 김능구 : 취임 두 달, 대통령 지지율이 30%대에 턱걸이를 한 수준이다. 혹자는 20%까지 내려갈 수도 있다고 하는데, 윤 대통령한테 ‘반전의 기회는 있을 것인가’를 살펴보겠다. 먼저 여론조사 수치를 가지고 홍 소장님이 간단하게 짚어주기 바란다. 홍형식 : 대통령 지지율만 놓고 보면, 전화면접이나 ARS 상관없이 많은 조사기관들의 발표에 거의 일관된 수치가 나오고 있다. 달리 이야기하면 거의 모든 국민들이 부정적으로 평가하고 있다는 것을 방증하는 현상이다. 불과 얼마 전에 지지율이 역전됐다는 이야기가 나왔는데, 한발 더 나아가 40% 이하로 떨어졌다는 보도가 나오고 얼마 안 돼서 이제 30%대 초반 [폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김해야” [스페셜인터뷰 전문 ②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김해야” [노회찬 4주기에 부쳐] 정치자금법① ‘오세훈법’을 넘어 ‘노회찬법’으로 인터뷰 더보기 [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김해야” [폴리뉴스 강경우PD] 기후 위기 대응은 에너지 전환이 핵심이다. 탄소 중립을 위한 국제적 공조 속에 화석연료의 감축과 재생에너지의 비중을 늘려가는 에너지 믹스의 재구성 과정이 관건이지만, 구체적인 대응전략과 로드맵은 각 국의 상황에 따라 큰 차이를 보이고 있다. 미래 경제와도 떼놓고 생각할 수 없는 이슈인데, 폴리뉴스 김능구 대표는 7월 스페셜인터뷰로 홍종호 서울대 환경대학원 교수님을 모시고 우리나라의 현 주소와 바람직한 대응 방향에 대해 들어봤다. [스페셜인터뷰 전문 ②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김해야” [스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [폴리TV][스페셜인터뷰①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [스페셜 인터뷰] 홍종호 서울대 환경대학원 교수 “원전, 재생에너지 확대 과정의 보완 발전원으로 봐야” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 YPT테니스 봉사팀 경기도 하남시 장애인들과 테니스 소통 YPT테니스 봉사팀(회장 최기훈)이 7월21일경기도'하남시장애인복지관'에서 윤슬중학교 학생들과 테니스 봉사활동에 참여해눈길을 끌고 있다. YPT테니스 봉사팀은 경기도 양평에서 테니스 봉사활동을 하다가 '하남시장애인복지관'에서 매직 테니스로 봉사활동을 하는 모습을 보고 'YPT테니스봉사팀'에게요청하여 진행했다고 한다. 또한, 윤슬중학교 학생들은 여름방학을 맞이해봉사활동에함께 참여했다.방학 프로그램에매직테니스 수업이 개설되면서수업과 봉사를 연계하여 학생들에게 장애인들과 소통할 수 있는 시간을 갖게 됐다.'하남시장애인복지관'은 소통과 섬김으로 나눔을 실천하는 복지관으로서 최고의 교육시설을 갖추고 있다. 한편, 최기훈 봉사팀 회장은 "봉사를 할 수 있게 자리를 마련해줘서 뜻깊은 시간이 되었다."며, 김진 봉사팀일원도 "테니스를 사랑하는 동호인으로서 제가 할 수 있는 운동으로 장애인분들에게 도움이 될 수 있다는 사실이 너무 좋았다."고 소감을 밝혔다. 안유하, 찬슬 윤슬중학교 학생은 "장애인 분들이테니스를 하면서재밌고, 만족해하시는 모습을 보고 정말 보람 찼고, 이렇게 실습하면서 색다른 경험을 할 수 있어서 좋았습니다. 다음번에도 이렇게 기회가 온다면 다시 하고 싶습 인터넷신문 1세대 ‘폴리뉴스’ &lt;2022 인터넷신문 언론대상&gt; 특별상 수상 [정부업무보고] 尹대통령 문체부 靑개방 보고에 “복합문화예술 공간으로 기획하라” 청와대 미술전시장 중심 복합문화단지로…K콘텐츠 경제성장 축으로 집중 지원 파업 50일째, 이젠 ‘손배소’…하청노조 “사측, 타협 결렬 위해 공권력 기다리는 듯” 폴리TV 더보기 [폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김해야” [폴리TV][스페셜인터뷰①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [폴리TV][김능구와 이강윤의 여론조사 대해부 7월③] “창조적 파괴 수준의 민주당 혁신, 전대가 배출할 새 리더십의 미션” 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 07월 21일 22시 05분 최상단으로</t>
@@ -55,19 +163,19 @@
     <t>제주도 서귀포 중문 관광에서 흑돼지 맛집을 만나다. 돈가득 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 제주소식 제주도 서귀포 중문 관광에서 흑돼지 맛집을 만나다. 돈가득 전소영 press@betanews.net 기사 입력 : 2017-12-14 16:42:38 어느새 2017년 한해도 얼마 남지 않았다. 곧 있으면 2018년 무술년 새해가 밝아오는데, 새롭게 시작되는 한 해를 행복하고 활기차게 보내기 위해 사랑하는 가족 또는 지인과 함께 여행으로 시작하는 것은 어떨까. 국외보다는 국내, 국내에서도 한국적이면서 이국적인 곳 하면 제주도만한 곳이 없을 것이다. 긴 시간 휴가를 내어 제주도를 구석구석 다 돌아보면 좋겠지만 짧은 일정동안 제주도를 다채롭게 관광하고 싶다면 서귀포시에 위치한 중문관광단지를 권한다. 테디베어뮤지엄, 초콜릿박물관 외 5가지 테마로 구성된 ‘박물관은 살아있다’와 나무종류만 1700여종인 실내 식물원 ‘여지미식물원’, 돌고래 수중공연과 바다사자, 원숭이 등을 볼 수 있는 ‘퍼시픽랜드’까지. 볼거리 놀거리 즐길거리가 풍부하다.거기에 3단폭포로 쏟아져 내려오는 모습이 장관인 ‘천제연 폭포’와 오랜 시간 파도와 부딪혀 만들어진 대포동 ‘지삿개 주상절리’의 웅장한 모습까지. 자연이 주는 감동을 눈으로 보고 피부로 느끼며 오래도록 추억하기에 안성맞춤이다. 제주도에 왔으니 제주 특산메뉴를 맛보는 일도 결코 빠질 수 없다. 중문동 2025-1에 위치한 흑돼지 전문점 ‘돈가득’은 복분자를 넣어 잡내 없이 깔끔한 흑돼지 맛으로 각광을 받는 곳이다. 제주도산 품질 좋은 흑돼지를 참숯에 굽는데 굽기 직전 복분자를 뿌려 잡내는 없애고 은은한 숯불 향과 복분자 향을 함께 머금게 해 이곳만의 독보적인 흑돼지 맛을 완성시켰다. 관광객뿐 아니라 현지인들의 입맛까지 사로잡으며 승승장구 중인데, 최근에는 MBC에브리원 ‘맛있을 지도’ 먹방에도 소개되어 좋은 반응을 얻었다. 잘 구워진 흑돼지 근고기를 멜젓에 찍어서도 먹고, 이곳만의 특제양파절임과 함께 먹으면 입안의 새콤하고 깔끔한 그 맛이 일품이다. 베타뉴스 전소영 (press@betanews.net) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 제주소식 &gt;&gt; 카드뉴스 제주뉴스 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
   </si>
   <si>
-    <t>서귀포 중문관광단지 맛집, ‘서민흑돼지’ 제주도 '힐링메뉴' 선봬 &lt; 뉴스 &lt; 문화 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-04 10:04 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 진선규, 알고보면 부드러운 남자 [포토] 김신록, 신스틸러 여신 'APAN' 참석 [포토] 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 서귀포 중문관광단지 맛집, ‘서민흑돼지’ 제주도 '힐링메뉴' 선봬 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 뉴스 서귀포 중문관광단지 맛집, ‘서민흑돼지’ 제주도 '힐링메뉴' 선봬 기자명 이우람 입력 2017.12.09 15:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 이우람 기자]한 해를 마무리하기 위해 힐링여행을 생각하는 12월이 돌아왔다. 해외로 섣불리 나서기는 어렵지만 이국적인 풍경을 느끼고 싶어 제주도를 찾는 관광객이 적지 않다.제주도에서 진정한 힐링을 하려면 제주도의 풍경과 어우러지는 맛집을 탐색해보는 것도 빼놓을 수 없다. 제주도를 찾는 관광객들은 가볼만한 곳이나 유명한 맛집을 찾는다. 특히 제주도 현지에서 신선한 식재료와 함께 아름다운 풍경을 사진으로 남길 수 있는 장소가 있는지 고민하는 경우가 많다. 이에 제주도의 풍경과 푸짐한 고기 요리를 추억으로 담는 것은 어떨까. 제주도의 대표적인 특산물은 싱싱한 해산물로 만든 바닷고기회와 고기국수, 흑돼지를 꼽을 수 있다. 이중 흑돼지는 내륙에서는 맛볼 수 없는 육즙이 많고 쫀득한 식감이 일품이다. 일명 '똥돼지'라고도 불리던 우리나라 재래 가축으로 고기의 질이 좋아 제주도 맛집 관광 요소로 빠지지 않는 경우가 많다. 특히 돼지고기요리가 특화된 중문관광단지맛집을 찾는 사람들은 흑돼지를 잊지 않는다. 참숯으로 구워내는 흑돼지는 그 풍미가 더한다. 제주 중문흑돼지맛집인 '서민흑돼지'는 고기의 감칠맛을 보존하면서 현대인의 취향에 맞춰 발전해 왔다. 흑돼지 오겹살은 참숯으로 구워내 담백하고 쫄깃하다. 참숯 구이뿐만 아니라, 생갈비, 양념갈비, 4인 서민세트, 2인 커플세트 등 취향과 개인에 따라 선택해 즐길 수 있는 메뉴는 다양하다. 사진을 찍기도 좋다. 서민흑돼지에는 제주도의 경관을 조망할 수 있는 테라스가 있기에 맛있는 음식을 제주의 풍경 속에 담아낼 수 있다. 한편 서귀포시에 위치한 서민흑돼지는 인근에 롯데호텔, 신라호텔, 히든클리프호텔이 있기에 관광이 용이하다는 특징이 있다. 공간의 경우 넓은 주차장과 총 160명을 수용할 수 있다. 자세한 문의 및 예약은 서민흑돼지의 대표전화를 통해 알아볼 수 있다. 이우람 기자 pd@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 이우람의 다른 기사 보기 이우람 pd@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 한상진, 부드러운 미중년 미소 [포토] 소이현, 언제나 상큼 미모 [포토] 다샤 타란 'APAN' 참석했어요 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 정일우-권유리, 'APAN' 진행 맡았어요 [포토] 전미도, 순백의 여신미 뽐내며 [포토화보] 허성태, 카리스마 유지 실패 [포토] 강영석, 올블랙 수트로 멋지게 [포토] 탕준상, 멋지게 차려 입고 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 중문 관광단지 흑돼지 맛집 ‘삼미흑돼지’, 전복 서비스 제공 - ::: 글로벌 녹색성장 미디어 - 이투뉴스 × 전체기사 이투속보 종합 전체 이슈 분석 단독 인사·동정 포토 행사 정책 전체 정부 국회 지방 정부․국회 일정 NGO 산업 전체 전력 원자력 신재생 가스 집단에너지 석유 자원 수요관리 환경 기업 기후변화 기술.R&amp;D 생태 국제 전체 정책 산업 이슈 기획 전체 특집 인터뷰 탐방 진단 기업 오피니언 전체 사설 칼럼 기고 독자비평 기자수첩 보도자료 고객센터 전체 용어사전 경제속보 전체 재테크/부동산 취업/채용 자동차 경제종합 연예/문화 스포츠 건강/의학 여행/레저 공연/출판 학술 생활/문화 이투뉴스 E2NEWS Only UPDATED. 2022-10-04 10:13 (화) 전체 이투속보 이투뉴스 경제속보 E2 Only 종합 이슈 분석 단독 인사·동정 포토 행사 정책 정부 국회 지방 정부․국회 일정 NGO 산업 전력 원자력 신재생 가스 집단에너지 석유 자원 수요관리 환경 기업 기후변화 기술.R&amp;D 생태 국제 정책 산업 이슈 기획 특집 인터뷰 탐방 진단 기업 오피니언 사설 칼럼 기고 독자비평 기자수첩 로그인 회원가입 종이신문 RSS 스크랩마스터 기사검색 검색 이전 다음 제주도 중문 관광단지 흑돼지 맛집 ‘삼미흑돼지’, 전복 서비스 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제속보 생활/문화 제주도 중문 관광단지 흑돼지 맛집 ‘삼미흑돼지’, 전복 서비스 제공 김윤정 기자 승인 2017.12.07 10:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 제주도는 경치가 아름답고 관광단지가 잘 조성되어 있기로 유명하다. 워낙 맛볼 수 있는 음식이 많아 맛있는 음식을 찾아 맛집 여행을 하는 이들도 많다. 좋은 경치도 보고, 맛있는 음식까지 곁들이는 여행이야말로 '힐링 여행'이 될 수 있다. 식도락 여행객에게 제주도 중문관광단지 흑돼지 맛집은 꼭 들러야 하는 곳 중 한 곳이다. 흑돼지는 제주도의 대표 음식이다. 중문에 관광단지가 조성되어있다 보니 특히 흑돼지 맛집이 많은데, ‘삼미흑돼지’도 그 중 한 곳이다. 삼미흑돼지는 현재 한 사람마다 한 개씩, 전복을 서비스로 제공하고 있다. 흑돼지를 주문하면 기본적으로 계란찜과 멸젓, 가래떡이 제공되며 현재 전복 서비스까지 더해졌다. 또한 숙소 픽업 서비스도 가능해 중문 지역에 숙소가 있다면 활용해 더 편하게 방문하는 게 좋다. 삼미흑돼지에서는 셀프야채냉장고를 운영해 편하게 야채를 가져다먹을 수 있으며, 후식도 직접 만든 파인애플식초와 직접 농사지은 귤을 제공하고 있으며, 매장 내에서는 얼마든지 마음껏 먹을 수 있다. 삼미흑돼지는 화학조미료 사용을 줄인 웰빙 음식점이다. 사과, 양파, 대파 등으로 육수를 만들어 사용하며, 흑돼지도 질 좋은 흑돼지를 사용해 식감을 더 높였다. 삼미흑돼지는 저녁 11시까지 운영하므로 편한 시간에 방문하기 좋다. 한편 삼미흑돼지에서 픽업서비스를 이용하거나 예약문의를 하려면 대표번호로 문의 가능하다. 저작권자 © ::: 글로벌 녹색성장 미디어 - 이투뉴스 무단전재 및 재배포 금지 김윤정 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 이투뉴스 E2only 1국민은행, 포스코케미칼 이차전지 위한 1조원 여신한도 지원 210월 도시가스 요금 오르고, LPG가격은 동결 3[이슈in] 폐기물 처리 동상이몽, 해법을 찾아라 4소비량 많은 상업용·산업용 전기요금 할증 인상 5[미리 보는 국감] 수소차 확산…선결과제는 충전인프라 6대성에너지, 노사화합 족구대회…조직문화 활력 7석유공사, 기업광고 포스터‧이모티콘 공모전 8원자력에 과세 신설한다면 핵연료와 방폐물 선호 9원안위, 피동촉매형수소재결합기 추가실험계획 보고받아 10전기안전공사-민간발전협회, 파주에너지서 기술협력 워크숍 16번 입찰 끝에 마곡열병합 건설업체 가닥 2열수송관 수명 2배로 연장하는 특허 나왔다 3전기차·ESS 화재 때 맹독성 불산 퍼진다 4'집단에너지 큰 그림’ 그리는 GS에너지 5신설 火電, 묻지마 설비용량 ‘뻥튀기’ 6난국에도 'GS파워·나래ES'는 독야청청 7주먹구구 신재생에너지 융복합지원사업 8LH 집단에너지사업 매각속도 빨라진다 9원전 10기 수명 늘리고 재생에너지 속도조절 10국내 석탄화력 48기 '자체 재기동' 못한다 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 구로구 디지털로27길 36 809-2호(구로동, 이스페이스) 대표전화 : 02-877-4114 팩스 : 02-2038-3749 청소년보호책임자 : 이재욱 편집국장 : 채덕종 편집인 : 이재욱 제호 : ::: 글로벌 녹색성장 미디어 - 이투뉴스 법인명 : (주)에너지환경일보 등록번호 : 서울 다 07637 / 서울 아 00215 등록일 : 2006-06-14 발행일 : 2006-06-14 발행인 : 이재욱 ::: 글로벌 녹색성장 미디어 - 이투뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 ::: 글로벌 녹색성장 미디어 - 이투뉴스. All rights reserved. mail to webmaster@e2news.com 위로</t>
-  </si>
-  <si>
-    <t>제주도의회 문화관광 예산 61억 싹뚝 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도의회 문화관광 예산 61억 싹뚝 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주도의회 문화관광 예산 61억 싹뚝 기자명 최병근 기자 입력 2017.12.03 13:23 수정 2017.12.03 13:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 문화체육 23억.관광 16억.유산본부 15억.도립미술관 6억 ‘삭감’ 제주도의회가 제주도가 제출한 문화관광스포츠 관련된 3182억4140만4000원의 2018년도 예산안을 심의해 61억4500만원을 삭감 의결, 예산결산특별위원회로 넘겼다.제주도의회 문화관광스포츠위원회(위원장 김희현)는 이 같은 내용의 예산안을 심의 의결했다고 3일 밝혔다.문화관광스포츠위원회는 문화체육대외협력국 예산 23억1000만원, 관광국 16억, 세계유산본부 15억5000만원, 제주도립미술관 68억5000만원을 각각 삭감했다.구체적으로 보면 문화관광스포츠위원회는 제주문화예술재단 운영비 출연금 28억 가운데 8억원을 삭감했다. 관광국 예산가운데 제주관광 질적성장 기반 구축 및 관광객 유치 마케팅 비용 61억 가운데 5억원을 삭감했다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 사랑의 김장김치 나눔활동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 사랑의 김장김치 나눔활동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 사랑의 김장김치 나눔활동 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.12.03 10:56 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 2일 제주웰컴센터에서'사랑의 김장김치 나눔활동'을 실시했다.이날 봉사단 30여명이 참여한 가운데 김장김치 200포기를 직접 담가 지역 내 사회복지시설과 홀로 계신 어르신들에게 전달했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도의회 문화관광스포츠위원회, 2018년 제주도 예산안 계수조정 결과 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도의회 문화관광스포츠위원회, 2018년 제주도 예산안 계수조정 결과 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 제주도의회 문화관광스포츠위원회, 2018년 제주도 예산안 계수조정 결과 편집팀 iheadline@hanmail.net 승인 2017.12.03 16:37 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 첨부파일 : "2018년도 제주특별자치도 관광진흥기금 세입.세출안 수정 내역(최종)" 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도의회 상임위 예산안 계수조정, '322억원' 삭감 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+    <t>서귀포 중문관광단지 맛집, ‘서민흑돼지’ 제주도 '힐링메뉴' 선봬 &lt; 뉴스 &lt; 문화 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 서귀포 중문관광단지 맛집, ‘서민흑돼지’ 제주도 '힐링메뉴' 선봬 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 뉴스 서귀포 중문관광단지 맛집, ‘서민흑돼지’ 제주도 '힐링메뉴' 선봬 기자명 이우람 입력 2017.12.09 15:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 이우람 기자]한 해를 마무리하기 위해 힐링여행을 생각하는 12월이 돌아왔다. 해외로 섣불리 나서기는 어렵지만 이국적인 풍경을 느끼고 싶어 제주도를 찾는 관광객이 적지 않다.제주도에서 진정한 힐링을 하려면 제주도의 풍경과 어우러지는 맛집을 탐색해보는 것도 빼놓을 수 없다. 제주도를 찾는 관광객들은 가볼만한 곳이나 유명한 맛집을 찾는다. 특히 제주도 현지에서 신선한 식재료와 함께 아름다운 풍경을 사진으로 남길 수 있는 장소가 있는지 고민하는 경우가 많다. 이에 제주도의 풍경과 푸짐한 고기 요리를 추억으로 담는 것은 어떨까. 제주도의 대표적인 특산물은 싱싱한 해산물로 만든 바닷고기회와 고기국수, 흑돼지를 꼽을 수 있다. 이중 흑돼지는 내륙에서는 맛볼 수 없는 육즙이 많고 쫀득한 식감이 일품이다. 일명 '똥돼지'라고도 불리던 우리나라 재래 가축으로 고기의 질이 좋아 제주도 맛집 관광 요소로 빠지지 않는 경우가 많다. 특히 돼지고기요리가 특화된 중문관광단지맛집을 찾는 사람들은 흑돼지를 잊지 않는다. 참숯으로 구워내는 흑돼지는 그 풍미가 더한다. 제주 중문흑돼지맛집인 '서민흑돼지'는 고기의 감칠맛을 보존하면서 현대인의 취향에 맞춰 발전해 왔다. 흑돼지 오겹살은 참숯으로 구워내 담백하고 쫄깃하다. 참숯 구이뿐만 아니라, 생갈비, 양념갈비, 4인 서민세트, 2인 커플세트 등 취향과 개인에 따라 선택해 즐길 수 있는 메뉴는 다양하다. 사진을 찍기도 좋다. 서민흑돼지에는 제주도의 경관을 조망할 수 있는 테라스가 있기에 맛있는 음식을 제주의 풍경 속에 담아낼 수 있다. 한편 서귀포시에 위치한 서민흑돼지는 인근에 롯데호텔, 신라호텔, 히든클리프호텔이 있기에 관광이 용이하다는 특징이 있다. 공간의 경우 넓은 주차장과 총 160명을 수용할 수 있다. 자세한 문의 및 예약은 서민흑돼지의 대표전화를 통해 알아볼 수 있다. 이우람 기자 pd@mhns.co.kr 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 이우람의 다른 기사 보기 이우람 pd@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 흑돼지 맛집 ‘삼미흑돼지’, 전복 서비스 제공 - ::: 글로벌 녹색성장 미디어 - 이투뉴스 × 전체기사 이투속보 종합 전체 이슈 분석 단독 인사·동정 포토 행사 정책 전체 정부 국회 지방 정부․국회 일정 NGO 산업 전체 전력 원자력 신재생 가스 집단에너지 석유 자원 수요관리 환경 기업 기후변화 기술.R&amp;D 생태 국제 전체 정책 산업 이슈 기획 전체 특집 인터뷰 탐방 진단 기업 오피니언 전체 사설 칼럼 기고 독자비평 기자수첩 보도자료 고객센터 전체 용어사전 경제속보 전체 재테크/부동산 취업/채용 자동차 경제종합 연예/문화 스포츠 건강/의학 여행/레저 공연/출판 학술 생활/문화 이투뉴스 E2NEWS Only UPDATED. 2022-10-11 11:33 (화) 전체 이투속보 이투뉴스 경제속보 E2 Only 종합 이슈 분석 단독 인사·동정 포토 행사 정책 정부 국회 지방 정부․국회 일정 NGO 산업 전력 원자력 신재생 가스 집단에너지 석유 자원 수요관리 환경 기업 기후변화 기술.R&amp;D 생태 국제 정책 산업 이슈 기획 특집 인터뷰 탐방 진단 기업 오피니언 사설 칼럼 기고 독자비평 기자수첩 로그인 회원가입 종이신문 RSS 스크랩마스터 기사검색 검색 이전 다음 제주도 중문 관광단지 흑돼지 맛집 ‘삼미흑돼지’, 전복 서비스 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제속보 생활/문화 제주도 중문 관광단지 흑돼지 맛집 ‘삼미흑돼지’, 전복 서비스 제공 김윤정 기자 승인 2017.12.07 10:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 제주도는 경치가 아름답고 관광단지가 잘 조성되어 있기로 유명하다. 워낙 맛볼 수 있는 음식이 많아 맛있는 음식을 찾아 맛집 여행을 하는 이들도 많다. 좋은 경치도 보고, 맛있는 음식까지 곁들이는 여행이야말로 '힐링 여행'이 될 수 있다. 식도락 여행객에게 제주도 중문관광단지 흑돼지 맛집은 꼭 들러야 하는 곳 중 한 곳이다. 흑돼지는 제주도의 대표 음식이다. 중문에 관광단지가 조성되어있다 보니 특히 흑돼지 맛집이 많은데, ‘삼미흑돼지’도 그 중 한 곳이다. 삼미흑돼지는 현재 한 사람마다 한 개씩, 전복을 서비스로 제공하고 있다. 흑돼지를 주문하면 기본적으로 계란찜과 멸젓, 가래떡이 제공되며 현재 전복 서비스까지 더해졌다. 또한 숙소 픽업 서비스도 가능해 중문 지역에 숙소가 있다면 활용해 더 편하게 방문하는 게 좋다. 삼미흑돼지에서는 셀프야채냉장고를 운영해 편하게 야채를 가져다먹을 수 있으며, 후식도 직접 만든 파인애플식초와 직접 농사지은 귤을 제공하고 있으며, 매장 내에서는 얼마든지 마음껏 먹을 수 있다. 삼미흑돼지는 화학조미료 사용을 줄인 웰빙 음식점이다. 사과, 양파, 대파 등으로 육수를 만들어 사용하며, 흑돼지도 질 좋은 흑돼지를 사용해 식감을 더 높였다. 삼미흑돼지는 저녁 11시까지 운영하므로 편한 시간에 방문하기 좋다. 한편 삼미흑돼지에서 픽업서비스를 이용하거나 예약문의를 하려면 대표번호로 문의 가능하다. 저작권자 © ::: 글로벌 녹색성장 미디어 - 이투뉴스 무단전재 및 재배포 금지 김윤정 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 이투뉴스 E2only 1한난 신임 사장 정용기 전 국회의원 유력 2LH 집단에너지사업 매각 스타트 3‘원전 70%’ 佛 전력난…“한국에도 닥칠 문제” 4[이기업, 이사람] 망한 주유소 살리는 미다스의 손 5서울에너지공사, 성북구 지역난방 뚫었다 6[기획좌담회] "재생에너지 7%에 전력망관리 이렇게 밖에 못하나" 7대성에너지, 집단에너지 사업소 비상사태 대응훈련 8美 전기차 인프라 구축에 예산 폭탄 투하 9화재사고 우려로 한전 ESS 111곳 가동정지 10한다-우선이엔씨, 분산형 에너지 융·복합사업 전기공사 MOA 16번 입찰 끝에 마곡열병합 건설업체 가닥 2'집단에너지 큰 그림’ 그리는 GS에너지 3신설 火電, 묻지마 설비용량 ‘뻥튀기’ 4난국에도 'GS파워·나래ES'는 독야청청 5주먹구구 신재생에너지 융복합지원사업 6원전 10기 수명 늘리고 재생에너지 속도조절 7LH 집단에너지사업 매각속도 빨라진다 8국내 석탄화력 48기 '자체 재기동' 못한다 9한난 신임 사장 정용기 전 국회의원 유력 10유명무실 탄소인증제에 국산 모듈價 하락세 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 구로구 디지털로27길 36 809-2호(구로동, 이스페이스) 대표전화 : 02-877-4114 팩스 : 02-2038-3749 청소년보호책임자 : 이재욱 편집국장 : 채덕종 편집인 : 이재욱 제호 : ::: 글로벌 녹색성장 미디어 - 이투뉴스 법인명 : (주)에너지환경일보 등록번호 : 서울 다 07637 / 서울 아 00215 등록일 : 2006-06-14 발행일 : 2006-06-14 발행인 : 이재욱 ::: 글로벌 녹색성장 미디어 - 이투뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 ::: 글로벌 녹색성장 미디어 - 이투뉴스. All rights reserved. mail to webmaster@e2news.com 위로</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광 예산 61억 싹뚝 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도의회 문화관광 예산 61억 싹뚝 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주도의회 문화관광 예산 61억 싹뚝 기자명 최병근 기자 입력 2017.12.03 13:23 수정 2017.12.03 13:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 문화체육 23억.관광 16억.유산본부 15억.도립미술관 6억 ‘삭감’ 제주도의회가 제주도가 제출한 문화관광스포츠 관련된 3182억4140만4000원의 2018년도 예산안을 심의해 61억4500만원을 삭감 의결, 예산결산특별위원회로 넘겼다.제주도의회 문화관광스포츠위원회(위원장 김희현)는 이 같은 내용의 예산안을 심의 의결했다고 3일 밝혔다.문화관광스포츠위원회는 문화체육대외협력국 예산 23억1000만원, 관광국 16억, 세계유산본부 15억5000만원, 제주도립미술관 68억5000만원을 각각 삭감했다.구체적으로 보면 문화관광스포츠위원회는 제주문화예술재단 운영비 출연금 28억 가운데 8억원을 삭감했다. 관광국 예산가운데 제주관광 질적성장 기반 구축 및 관광객 유치 마케팅 비용 61억 가운데 5억원을 삭감했다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 사랑의 김장김치 나눔활동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 사랑의 김장김치 나눔활동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 사랑의 김장김치 나눔활동 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2017.12.03 10:56 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 2일 제주웰컴센터에서'사랑의 김장김치 나눔활동'을 실시했다.이날 봉사단 30여명이 참여한 가운데 김장김치 200포기를 직접 담가 지역 내 사회복지시설과 홀로 계신 어르신들에게 전달했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도의회 문화관광스포츠위원회, 2018년 제주도 예산안 계수조정 결과 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도의회 문화관광스포츠위원회, 2018년 제주도 예산안 계수조정 결과 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 제주도의회 문화관광스포츠위원회, 2018년 제주도 예산안 계수조정 결과 편집팀 iheadline@hanmail.net 승인 2017.12.03 16:37 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 첨부파일 : "2018년도 제주특별자치도 관광진흥기금 세입.세출안 수정 내역(최종)" 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도의회 상임위 예산안 계수조정, '322억원' 삭감 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
   </si>
 </sst>
 </file>
@@ -425,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +632,227 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
